--- a/9.0 CRONOGRAMA/CRONOGRAMA- SANTA ROSA.xlsx
+++ b/9.0 CRONOGRAMA/CRONOGRAMA- SANTA ROSA.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORFEI 751\Documents\GitHub\IOARR0005-SANTA-ROSA\9.0 CRONOGRAMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\IOARR0005-SANTA-ROSA\9.0 CRONOGRAMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$F$20</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -106,7 +106,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>OPTIMIZACION MEDIANTE COBERTURA DE LA LOSA DEPORTIVA MULTIUSO DE LA IEP N°54411 "ANDRES AVELINO CACERES",DISTRITO SANTA ROSA, PROVINCIA GRAU-REGION APURIMAC</t>
+      <t>OPTIMIZACION MEDIANTE COBERTURA DE LA LOSA DEPORTIVA MULTIUSO DE LA IEP N°54411 "ANDRES AVELINO CACERES - SANTA ROSA",DISTRITO SANTA ROSA, PROVINCIA GRAU-REGION APURIMAC</t>
     </r>
     <r>
       <rPr>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -804,21 +804,21 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="1"/>
-    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>20</v>
       </c>
@@ -828,7 +828,7 @@
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
     </row>
-    <row r="2" spans="1:6" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
@@ -848,7 +848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -863,7 +863,7 @@
         <v>3524.03</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>18</v>
       </c>
@@ -873,7 +873,7 @@
       <c r="E4" s="32"/>
       <c r="F4" s="33"/>
     </row>
-    <row r="5" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -888,7 +888,7 @@
         <v>127623.44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -906,7 +906,7 @@
         <v>80547.539999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>19</v>
       </c>
@@ -921,7 +921,7 @@
         <v>16061.35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>15</v>
       </c>
@@ -936,7 +936,7 @@
         <v>7363.19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -951,7 +951,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -970,23 +970,25 @@
         <v>239119.55</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="16">
-        <v>9668.3549999999996</v>
+        <f>F11/2</f>
+        <v>31508.89</v>
       </c>
       <c r="D11" s="16">
-        <v>9668.3549999999996</v>
+        <f>F11/2</f>
+        <v>31508.89</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="18">
         <v>63017.78</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
@@ -1004,7 +1006,7 @@
         <v>24961.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
@@ -1022,7 +1024,7 @@
         <v>15464.06</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1037,7 +1039,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1052,7 +1054,7 @@
         <v>17290.75</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -1062,11 +1064,11 @@
       </c>
       <c r="C16" s="20">
         <f>SUM(C10:C15)</f>
-        <v>205302.375</v>
+        <v>227142.91</v>
       </c>
       <c r="D16" s="20">
         <f>SUM(D10:D15)</f>
-        <v>93579.444999999992</v>
+        <v>115419.98</v>
       </c>
       <c r="E16" s="20">
         <f>SUM(E10:E15)</f>
@@ -1074,7 +1076,7 @@
       </c>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>12</v>
       </c>

--- a/9.0 CRONOGRAMA/CRONOGRAMA- SANTA ROSA.xlsx
+++ b/9.0 CRONOGRAMA/CRONOGRAMA- SANTA ROSA.xlsx
@@ -1,27 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORFEI\Desktop\IOARR SANTA ROSA\9.0 CRONOGRAMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORFEI 751\Documents\GitHub\IOARR0005-SANTA-ROSA\9.0 CRONOGRAMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349FA566-5B05-443A-9F9C-7B08E912979A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$F$20</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -84,9 +80,6 @@
     <t xml:space="preserve">Estructuras </t>
   </si>
   <si>
-    <t xml:space="preserve">Instalaciones Sanitarias </t>
-  </si>
-  <si>
     <t>Inslataciones Electricas</t>
   </si>
   <si>
@@ -97,6 +90,9 @@
   </si>
   <si>
     <t xml:space="preserve">COBERTURA METALICA </t>
+  </si>
+  <si>
+    <t>Evacuacion de aguas Pluviales</t>
   </si>
   <si>
     <r>
@@ -110,7 +106,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>OPTIMIZACION MEDIANTE COBERTURA DE LA LOSA DEPORTIVA MULTIUSO DE LA I.E.INTEGRADO ANDRES AVELINO CACERES (IEP N° 54411) – SANTA ROSA, DISTRITO SANTA ROSA, PROVINCIA GRAU-REGION APURIMAC</t>
+      <t>OPTIMIZACION MEDIANTE COBERTURA DE LA LOSA DEPORTIVA MULTIUSO DE LA IEP N°54411 "ANDRES AVELINO CACERES",DISTRITO SANTA ROSA, PROVINCIA GRAU-REGION APURIMAC</t>
     </r>
     <r>
       <rPr>
@@ -127,9 +123,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -453,40 +449,40 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -540,35 +536,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="RESUMEN"/>
-      <sheetName val="R"/>
-      <sheetName val="C.Directo"/>
-      <sheetName val="G.General"/>
-      <sheetName val="Exp.Téc. "/>
-      <sheetName val="Supervision"/>
-      <sheetName val="Liquidacion"/>
-      <sheetName val="Capacitacion Social"/>
-      <sheetName val="Gestión"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -833,11 +800,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -888,17 +855,17 @@
       <c r="B3" s="3"/>
       <c r="C3" s="10">
         <f>F3</f>
-        <v>3519.03</v>
+        <v>3524.03</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10">
-        <v>3519.03</v>
+        <v>3524.03</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
@@ -913,13 +880,12 @@
       <c r="B5" s="3"/>
       <c r="C5" s="10">
         <f>F5</f>
-        <v>116517.7</v>
+        <v>127623.44</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10">
-        <f>2042.59+10330+201.6+10403.61+93539.9</f>
-        <v>116517.7</v>
+        <v>127623.44</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -929,36 +895,35 @@
       <c r="B6" s="3"/>
       <c r="C6" s="10">
         <f>F6/2</f>
-        <v>35627.264999999999</v>
+        <v>40273.769999999997</v>
       </c>
       <c r="D6" s="10">
         <f>F6/2</f>
-        <v>35627.264999999999</v>
+        <v>40273.769999999997</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10">
-        <f>61393.23+1009.91+8851.39</f>
-        <v>71254.53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>80547.539999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10">
         <f>F7</f>
-        <v>15853.69</v>
+        <v>16061.35</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10">
-        <v>15853.69</v>
+        <v>16061.35</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="10"/>
@@ -973,17 +938,17 @@
     </row>
     <row r="9" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="10">
         <f>F9</f>
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12">
-        <v>3500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -993,16 +958,16 @@
       <c r="B10" s="5"/>
       <c r="C10" s="13">
         <f>SUM(C3:C9)</f>
-        <v>159163.995</v>
+        <v>175421.24</v>
       </c>
       <c r="D10" s="13">
         <f>SUM(D3:D9)</f>
-        <v>58844.145000000004</v>
+        <v>63698.31</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="15">
         <f>+F5+F6+F7+F8+F9+F3</f>
-        <v>218008.13999999998</v>
+        <v>239119.55</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1041,7 +1006,7 @@
     </row>
     <row r="13" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="16">
@@ -1097,11 +1062,11 @@
       </c>
       <c r="C16" s="20">
         <f>SUM(C10:C15)</f>
-        <v>189045.13</v>
+        <v>205302.375</v>
       </c>
       <c r="D16" s="20">
         <f>SUM(D10:D15)</f>
-        <v>88725.28</v>
+        <v>93579.444999999992</v>
       </c>
       <c r="E16" s="20">
         <f>SUM(E10:E15)</f>
@@ -1119,7 +1084,7 @@
       <c r="E17" s="30"/>
       <c r="F17" s="21">
         <f>SUM(F10:F15)+0.01</f>
-        <v>348742.24</v>
+        <v>369853.64999999997</v>
       </c>
     </row>
   </sheetData>
